--- a/TeamACNTReport (1).xlsx
+++ b/TeamACNTReport (1).xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Documents/ssw555/555project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA6A414-3C95-CC43-9D0D-C765DDA8BDBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="18020" windowHeight="15740" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,816 +33,860 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="252">
-  <si>
-    <t xml:space="preserve">Initials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aaron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajin1@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnvertigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmurphy1@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmurph16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicholas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">npolich@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">npolich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McShea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tmchsea@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tmcshea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Repository:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/tmcshea/555project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less then 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct gender for role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name and birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique families by spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique first names in families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include individual ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order siblings by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List multiple births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Line Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Line End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parser.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datesBeforeCurrentDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_date_before_current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007 - 014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bornBeforeMarriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_birth_before_marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">016 - 022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birthBeforeDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_birth_before_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">025-031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marraigeBeforeDivorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_marraige_before_divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">034- 039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="277">
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>ajin1@stevens.edu</t>
+  </si>
+  <si>
+    <t>lnvertigo</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>cmurphy1@stevens.edu</t>
+  </si>
+  <si>
+    <t>cmurph16</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Polich</t>
+  </si>
+  <si>
+    <t>npolich@stevens.edu</t>
+  </si>
+  <si>
+    <t>npolich</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>McShea</t>
+  </si>
+  <si>
+    <t>tmchsea@stevens.edu</t>
+  </si>
+  <si>
+    <t>tmcshea</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/tmcshea/555project</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Line Start</t>
+  </si>
+  <si>
+    <t>Source Line End</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>parser.py</t>
+  </si>
+  <si>
+    <t>datesBeforeCurrentDate</t>
+  </si>
+  <si>
+    <t>testing.py</t>
+  </si>
+  <si>
+    <t>test_date_before_current</t>
+  </si>
+  <si>
+    <t>007 - 014</t>
+  </si>
+  <si>
+    <t>bornBeforeMarriage</t>
+  </si>
+  <si>
+    <t>test_birth_before_marriage</t>
+  </si>
+  <si>
+    <t>016 - 022</t>
+  </si>
+  <si>
+    <t>birthBeforeDeath</t>
+  </si>
+  <si>
+    <t>test_birth_before_death</t>
+  </si>
+  <si>
+    <t>025-031</t>
+  </si>
+  <si>
+    <t>marraigeBeforeDivorce</t>
+  </si>
+  <si>
+    <t>test_marraige_before_divorce</t>
+  </si>
+  <si>
+    <t>034- 039</t>
+  </si>
+  <si>
+    <t>Planning</t>
   </si>
   <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
-    <t xml:space="preserve">marriageBeforeDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_marraige_before_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">042-045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divorceBeforeDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_divorce_before_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">048-051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lessThan150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_less_than_150_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">054-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marriageBeforeBirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_birth_before_marriage_divroce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">063-078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep doing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bring silverware for everyone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaving leftover pizza on the counter</t>
+    <t>marriageBeforeDeath</t>
+  </si>
+  <si>
+    <t>test_marraige_before_death</t>
+  </si>
+  <si>
+    <t>042-045</t>
+  </si>
+  <si>
+    <t>divorceBeforeDeath</t>
+  </si>
+  <si>
+    <t>test_divorce_before_death</t>
+  </si>
+  <si>
+    <t>048-051</t>
+  </si>
+  <si>
+    <t>lessThan150</t>
+  </si>
+  <si>
+    <t>test_less_than_150_years</t>
+  </si>
+  <si>
+    <t>054-061</t>
+  </si>
+  <si>
+    <t>marriageBeforeBirth</t>
+  </si>
+  <si>
+    <t>test_birth_before_marriage_divroce</t>
+  </si>
+  <si>
+    <t>063-078</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Bring pizza to our meetings</t>
+  </si>
+  <si>
+    <t>Bring silverware for everyone</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Leaving leftover pizza on the counter</t>
   </si>
   <si>
     <t xml:space="preserve">Complete </t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familyTreeParser.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bornBeforeParentDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_us09_bornBeforeParentDeath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marriageAfter14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_us10_marriageAfter14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noBigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_no_bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101-106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parentsNotTooOld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_no_parents_too_old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108-113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siblingSpacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_sibling_spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115-120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siblingSameBirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_sibling_same_birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122-127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">less15Siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_less_than_15_siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129-134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maleLastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_male_last_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138-143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List large age differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent survivors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include input line numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include partial dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>familyTreeParser.py</t>
+  </si>
+  <si>
+    <t>bornBeforeParentDeath</t>
+  </si>
+  <si>
+    <t>test_us09_bornBeforeParentDeath</t>
+  </si>
+  <si>
+    <t>88-92</t>
+  </si>
+  <si>
+    <t>marriageAfter14</t>
+  </si>
+  <si>
+    <t>test_us10_marriageAfter14</t>
+  </si>
+  <si>
+    <t>95-99</t>
+  </si>
+  <si>
+    <t>noBigamy</t>
+  </si>
+  <si>
+    <t>test_no_bigamy</t>
+  </si>
+  <si>
+    <t>101-106</t>
+  </si>
+  <si>
+    <t>parentsNotTooOld</t>
+  </si>
+  <si>
+    <t>test_no_parents_too_old</t>
+  </si>
+  <si>
+    <t>108-113</t>
+  </si>
+  <si>
+    <t>siblingSpacing</t>
+  </si>
+  <si>
+    <t>test_sibling_spacing</t>
+  </si>
+  <si>
+    <t>115-120</t>
+  </si>
+  <si>
+    <t>siblingSameBirth</t>
+  </si>
+  <si>
+    <t>test_sibling_same_birth</t>
+  </si>
+  <si>
+    <t>122-127</t>
+  </si>
+  <si>
+    <t>less15Siblings</t>
+  </si>
+  <si>
+    <t>test_less_than_15_siblings</t>
+  </si>
+  <si>
+    <t>129-134</t>
+  </si>
+  <si>
+    <t>maleLastName</t>
+  </si>
+  <si>
+    <t>test_male_last_name</t>
+  </si>
+  <si>
+    <t>138-143</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>noChildrenMarriage</t>
+  </si>
+  <si>
+    <t>noSiblingMarriage</t>
+  </si>
+  <si>
+    <t>noCousinMarraige</t>
+  </si>
+  <si>
+    <t>noAuntsAndUncles</t>
+  </si>
+  <si>
+    <t>checkGenderRole</t>
+  </si>
+  <si>
+    <t>uniqueIDs</t>
+  </si>
+  <si>
+    <t>uniqueName</t>
+  </si>
+  <si>
+    <t>uniqueFamilySpouse</t>
+  </si>
+  <si>
+    <t>test_us17_noChildrenMarriage</t>
+  </si>
+  <si>
+    <t>test_us18_noSiblingMarriage</t>
+  </si>
+  <si>
+    <t>test_us19_noCousinMarraige</t>
+  </si>
+  <si>
+    <t>test_us20_noAuntUncle</t>
+  </si>
+  <si>
+    <t>test_us21_checkGenderRole</t>
+  </si>
+  <si>
+    <t>test_us23_uniqueName</t>
+  </si>
+  <si>
+    <t>test_us24_uniqueFamilySpouse</t>
+  </si>
+  <si>
+    <t>test_us22_uniqueIDs</t>
+  </si>
+  <si>
+    <t>147 - 152</t>
+  </si>
+  <si>
+    <t>155 - 160</t>
+  </si>
+  <si>
+    <t>163 - 168</t>
+  </si>
+  <si>
+    <t>171 - 177</t>
+  </si>
+  <si>
+    <t>180 - 186</t>
+  </si>
+  <si>
+    <t>189 - 190</t>
+  </si>
+  <si>
+    <t>193 - 199</t>
+  </si>
+  <si>
+    <t>202 - 208</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -850,6 +899,11 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -867,7 +921,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -875,129 +929,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1056,17 +1044,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1074,12 +1082,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1089,45 +1094,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6/6/2016</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/19/2016</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7/3/2016</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7/17/2016</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7/31/2016</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1150,14 +1165,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4236-6843-8DDD-BCE8045130AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1166,17 +1191,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="93448254"/>
         <c:axId val="94868064"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="93448254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1193,21 +1219,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94868064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="94868064"/>
         <c:scaling>
@@ -1242,13 +1269,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="93448254"/>
@@ -1257,7 +1285,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1266,24 +1294,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1291,12 +1329,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1306,45 +1341,52 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/9</c:v>
+                  <c:v>42408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/24</c:v>
+                  <c:v>42423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/8</c:v>
+                  <c:v>42436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>42457</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1362,19 +1404,26 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C51-4C44-8FA1-F33518C91FFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1383,17 +1432,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="75958388"/>
         <c:axId val="99467095"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="75958388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="M/D" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1410,21 +1460,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="99467095"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="99467095"/>
         <c:scaling>
@@ -1459,13 +1510,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="75958388"/>
@@ -1474,7 +1526,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1483,20 +1535,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1510,14 +1568,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="3627720"/>
-        <a:ext cx="4916880" cy="2671200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1540,9 +1604,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1558,12 +1628,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1583,7 +1653,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1591,15 +1662,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1610,15 +1681,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1639,9 +1710,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1657,12 +1734,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1682,7 +1759,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1690,15 +1768,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1719,9 +1797,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1737,12 +1821,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1762,7 +1846,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1770,15 +1855,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1799,9 +1884,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1817,12 +1908,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1842,7 +1933,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1850,15 +1942,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1869,15 +1961,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1898,9 +1990,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1916,12 +2014,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1941,7 +2039,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1949,15 +2048,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1978,9 +2077,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1996,12 +2101,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2021,7 +2126,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -2029,15 +2135,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2049,7 +2155,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2063,14 +2169,20 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="1479240"/>
-        <a:ext cx="4809960" cy="2670840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2083,28 +2195,318 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2121,65 +2523,65 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2189,47 +2591,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2246,518 +2640,582 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="E26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>96</v>
       </c>
+      <c r="E33" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="10.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="4" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2780,157 +3238,149 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="7">
         <v>41065</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="8">
         <v>24</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="8">
         <v>0</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="7">
         <v>41078</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="8">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C15-C16</f>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="8">
         <v>250</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8">
         <v>120</v>
       </c>
-      <c r="G16" s="4" t="n">
-        <f aca="false">(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="4">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="7">
         <v>41092</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="8">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C16-C17</f>
+      <c r="D17">
+        <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="8">
         <v>480</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="9">
         <v>135</v>
       </c>
-      <c r="G17" s="4" t="n">
-        <f aca="false">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="4">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="7">
         <v>41106</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="8">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C17-C18</f>
+      <c r="D18">
+        <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="8">
         <v>740</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="9">
         <v>160</v>
       </c>
-      <c r="G18" s="4" t="n">
-        <f aca="false">(E18-E17)/F18*60</f>
+      <c r="G18" s="4">
+        <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="7">
         <v>41120</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="8">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">C18-C19</f>
+      <c r="D19">
+        <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="8">
         <v>1100</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="9">
         <v>145</v>
       </c>
-      <c r="G19" s="4" t="n">
-        <f aca="false">(E19-E18)/F19*60</f>
-        <v>148.965517241379</v>
+      <c r="G19" s="4">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="10.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="4" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>103</v>
       </c>
@@ -2950,104 +3400,117 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>42408</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>32</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>42423</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">B2-C3</f>
+      <c r="B3">
+        <f>B2-C3</f>
         <v>24</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>206</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>195</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <f aca="false">206/(195/60)</f>
-        <v>63.3846153846154</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="F3" s="4">
+        <f>206/(195/60)</f>
+        <v>63.384615384615387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>42436</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>365</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>250</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <f aca="false">(D4/(E4/60))</f>
+      <c r="F4" s="4">
+        <f>(D4/(E4/60))</f>
         <v>87.6</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>42457</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>144</v>
+      </c>
+      <c r="E5">
+        <v>225</v>
+      </c>
+      <c r="F5" s="4">
+        <f>(D5/(E5/60))</f>
+        <v>38.4</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="11" width="17.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="11" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="11" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="12" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31" style="10" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="31.5" style="11" customWidth="1"/>
+    <col min="14" max="15" width="10.1640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="31.5" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="12" customWidth="1"/>
+    <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -3091,21 +3554,21 @@
       <c r="P1" s="15"/>
       <c r="Q1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="10">
         <v>25</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>30</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">K2-J2</f>
+      <c r="D2">
+        <f t="shared" ref="D2:D9" si="0">K2-J2</f>
         <v>21</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -3117,10 +3580,10 @@
       <c r="I2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="17">
         <v>161</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="17">
         <v>182</v>
       </c>
       <c r="L2" s="17" t="s">
@@ -3136,21 +3599,21 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="10">
         <v>20</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">K3-J3</f>
+      <c r="D3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -3162,10 +3625,10 @@
       <c r="I3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="17">
         <v>187</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="17">
         <v>203</v>
       </c>
       <c r="L3" s="17" t="s">
@@ -3179,21 +3642,21 @@
       </c>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="10">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">K4-J4</f>
+      <c r="D4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -3205,10 +3668,10 @@
       <c r="I4" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="17">
         <v>207</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="17">
         <v>217</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -3223,21 +3686,21 @@
       <c r="O4" s="17"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="10">
         <v>35</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">K5-J5</f>
+      <c r="D5">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -3249,10 +3712,10 @@
       <c r="I5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="17">
         <v>221</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="17">
         <v>231</v>
       </c>
       <c r="L5" s="17" t="s">
@@ -3267,21 +3730,21 @@
       <c r="O5" s="17"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="10">
         <v>35</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">K6-J6</f>
+      <c r="D6">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -3293,10 +3756,10 @@
       <c r="I6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="11">
         <v>235</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="11">
         <v>250</v>
       </c>
       <c r="L6" s="17" t="s">
@@ -3309,21 +3772,21 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="10">
         <v>35</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">K7-J7</f>
+      <c r="D7">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -3335,10 +3798,10 @@
       <c r="I7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>254</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="11">
         <v>269</v>
       </c>
       <c r="L7" s="17" t="s">
@@ -3351,21 +3814,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="10">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">K8-J8</f>
+      <c r="D8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -3377,10 +3840,10 @@
       <c r="I8" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="17">
         <v>273</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="17">
         <v>279</v>
       </c>
       <c r="L8" s="17" t="s">
@@ -3396,21 +3859,21 @@
       <c r="P8" s="17"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="10">
         <v>40</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">K9-J9</f>
+      <c r="D9">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3422,10 +3885,10 @@
       <c r="I9" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>283</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="11">
         <v>325</v>
       </c>
       <c r="L9" s="17" t="s">
@@ -3438,9 +3901,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0" t="n">
-        <f aca="false">SUM(E2:E9)</f>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
         <v>195</v>
       </c>
       <c r="F10" s="3"/>
@@ -3448,77 +3911,69 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B21" s="10" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" customWidth="1"/>
+    <col min="17" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3569,434 +4024,436 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>39</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>165</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>398</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>437</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>166</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>23</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>164</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>444</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>467</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" t="s">
         <v>130</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" t="s">
         <v>169</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>40</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>60</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>487</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>527</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" t="s">
         <v>172</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>13</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>533</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>546</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" t="s">
         <v>130</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" t="s">
         <v>175</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>30</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>45</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>24</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>60</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>164</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>552</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>576</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="P6" t="s">
         <v>178</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>45</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>18</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>180</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>581</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>599</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" t="s">
         <v>181</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>605</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>616</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>130</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" t="s">
         <v>184</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>35</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>40</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>40</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>45</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>163</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>164</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>186</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>629</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>669</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" t="s">
         <v>130</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" t="s">
         <v>187</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="29.5" customWidth="1"/>
+    <col min="17" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4024,35 +4481,461 @@
       <c r="I1" s="13" t="s">
         <v>118</v>
       </c>
+      <c r="J1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2">
+        <v>653</v>
+      </c>
+      <c r="M2">
+        <v>670</v>
+      </c>
+      <c r="O2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3">
+        <v>674</v>
+      </c>
+      <c r="M3">
+        <v>697</v>
+      </c>
+      <c r="O3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4">
+        <v>729</v>
+      </c>
+      <c r="M4">
+        <v>751</v>
+      </c>
+      <c r="O4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5">
+        <v>771</v>
+      </c>
+      <c r="M5">
+        <v>778</v>
+      </c>
+      <c r="O5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6">
+        <v>782</v>
+      </c>
+      <c r="M6">
+        <v>794</v>
+      </c>
+      <c r="O6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7">
+        <v>798</v>
+      </c>
+      <c r="M7">
+        <v>808</v>
+      </c>
+      <c r="O7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8">
+        <v>813</v>
+      </c>
+      <c r="M8">
+        <v>826</v>
+      </c>
+      <c r="O8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9">
+        <v>831</v>
+      </c>
+      <c r="M9">
+        <v>847</v>
+      </c>
+      <c r="O9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <f>SUM(G2:G9)</f>
+        <v>144</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H2:H9)</f>
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4081,37 +4964,213 @@
         <v>118</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="49.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="10" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4122,462 +5181,462 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="153" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>222</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>223</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>226</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>228</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>229</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>231</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>232</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>234</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>235</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>237</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>238</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>240</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>241</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>244</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>246</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>247</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>249</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>250</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -4585,12 +5644,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>